--- a/public/assets/addons_bulk_format_nodata.xlsx
+++ b/public/assets/addons_bulk_format_nodata.xlsx
@@ -20,28 +20,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve">name</t>
+    <t xml:space="preserve">Id</t>
   </si>
   <si>
-    <t xml:space="preserve">price</t>
+    <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">store_id</t>
+    <t xml:space="preserve">Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StoreId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
@@ -70,19 +76,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -111,20 +110,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -145,109 +136,382 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="8.85"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.3"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;K000000&amp;P</oddFooter>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>